--- a/biology/Médecine/Palmure/Palmure.xlsx
+++ b/biology/Médecine/Palmure/Palmure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les palmures sont des membranes qui joignent les doigts de certains animaux.
 Elles permettent ainsi une meilleure adaptation à la nage.
@@ -513,7 +525,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle palmure une bride de peau entre deux surfaces proches causée par une malformation ou par une brûlure grave.
 La palmure du larynx unit les cordes vocales et empêche leur mobilisation.
